--- a/external/Notes/block properties.xlsx
+++ b/external/Notes/block properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leafe\Documents\GitHub\Squashed\external\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A596858F-615D-4912-96CF-739679D22E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1290A0ED-DB33-4F5C-AA96-67FF6A0A7AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAAA5F30-DB79-486D-ABA2-4310E99BB614}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t xml:space="preserve">Effective Tool </t>
   </si>
@@ -215,9 +215,6 @@
     <t>Emits Light</t>
   </si>
   <si>
-    <t>Primarine Crystal</t>
-  </si>
-  <si>
     <t>Sea Lantern</t>
   </si>
   <si>
@@ -240,6 +237,21 @@
   </si>
   <si>
     <t>Block Type</t>
+  </si>
+  <si>
+    <t>Prismarine Crystal</t>
+  </si>
+  <si>
+    <t>Fern</t>
+  </si>
+  <si>
+    <t>Condensed Soul Sand</t>
+  </si>
+  <si>
+    <t>Soul Sand</t>
+  </si>
+  <si>
+    <t>Emits Light, Emissive</t>
   </si>
 </sst>
 </file>
@@ -343,13 +355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -398,13 +410,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -415,22 +426,21 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="20% - Accent3" xfId="7" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="8" builtinId="39"/>
-    <cellStyle name="Accent1" xfId="6" builtinId="29"/>
+  <cellStyles count="8">
+    <cellStyle name="40% - Accent1" xfId="7" builtinId="31"/>
+    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="Accent1" xfId="5" builtinId="29"/>
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Total" xfId="5" builtinId="25"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -470,8 +480,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DA4E498-655A-4511-9274-CD521CDBD8E6}" name="Table1" displayName="Table1" ref="B1:F19" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B1:F19" xr:uid="{6DA4E498-655A-4511-9274-CD521CDBD8E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DA4E498-655A-4511-9274-CD521CDBD8E6}" name="Table1" displayName="Table1" ref="B1:F20" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B1:F20" xr:uid="{6DA4E498-655A-4511-9274-CD521CDBD8E6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{44856CA5-66B5-4703-A124-38FE10A17117}" name="Block Type"/>
     <tableColumn id="2" xr3:uid="{92E131FA-59D7-44BA-9ACD-61FF2DC462F5}" name="Effective Tool "/>
@@ -783,13 +793,13 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="39.85546875" customWidth="1"/>
     <col min="5" max="5" width="70.28515625" customWidth="1"/>
@@ -798,8 +808,8 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
-      <c r="B1" s="8" t="s">
-        <v>67</v>
+      <c r="B1" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -905,7 +915,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -959,7 +969,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -977,7 +987,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -1027,105 +1037,133 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>63</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
         <v>64</v>
       </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" t="s">
         <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" t="s">
-        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>51</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>40</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>46</v>
       </c>
-      <c r="F19" t="s">
-        <v>66</v>
+      <c r="F20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">

--- a/external/Notes/block properties.xlsx
+++ b/external/Notes/block properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leafe\Documents\GitHub\Squashed\external\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1290A0ED-DB33-4F5C-AA96-67FF6A0A7AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5890FFA-182F-4E17-9142-3C549006823F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAAA5F30-DB79-486D-ABA2-4310E99BB614}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
   <si>
     <t xml:space="preserve">Effective Tool </t>
   </si>
@@ -179,15 +179,6 @@
     <t xml:space="preserve">???, Lodestone?, Beacon? </t>
   </si>
   <si>
-    <t>Culmination</t>
-  </si>
-  <si>
-    <t>Nadir</t>
-  </si>
-  <si>
-    <t>Sumpstone</t>
-  </si>
-  <si>
     <t>Immune to explosives</t>
   </si>
   <si>
@@ -252,6 +243,57 @@
   </si>
   <si>
     <t>Emits Light, Emissive</t>
+  </si>
+  <si>
+    <t>Dead Bush</t>
+  </si>
+  <si>
+    <t>Sweet Berry</t>
+  </si>
+  <si>
+    <t>Glow Berry</t>
+  </si>
+  <si>
+    <t>Flamable, Emissive, Emits Dim Light</t>
+  </si>
+  <si>
+    <t>Bamboo</t>
+  </si>
+  <si>
+    <t>Scaffold?</t>
+  </si>
+  <si>
+    <t>Grass Clipping</t>
+  </si>
+  <si>
+    <t>Shovel?</t>
+  </si>
+  <si>
+    <t>Scute</t>
+  </si>
+  <si>
+    <t>Any?</t>
+  </si>
+  <si>
+    <t>Slime Block?</t>
+  </si>
+  <si>
+    <t>Blaze Rod</t>
+  </si>
+  <si>
+    <t>End Rod</t>
+  </si>
+  <si>
+    <t>Emissive, Emits Light</t>
+  </si>
+  <si>
+    <t>Flamable, Hurts Player??</t>
+  </si>
+  <si>
+    <t>Scaffolding</t>
+  </si>
+  <si>
+    <t>Stick / Wicker</t>
   </si>
 </sst>
 </file>
@@ -326,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,18 +397,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -384,21 +420,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -410,7 +431,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -418,23 +439,20 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="40% - Accent1" xfId="7" builtinId="31"/>
-    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
+  <cellStyles count="7">
+    <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -480,8 +498,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DA4E498-655A-4511-9274-CD521CDBD8E6}" name="Table1" displayName="Table1" ref="B1:F20" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B1:F20" xr:uid="{6DA4E498-655A-4511-9274-CD521CDBD8E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DA4E498-655A-4511-9274-CD521CDBD8E6}" name="Table1" displayName="Table1" ref="B1:F27" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B1:F27" xr:uid="{6DA4E498-655A-4511-9274-CD521CDBD8E6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{44856CA5-66B5-4703-A124-38FE10A17117}" name="Block Type"/>
     <tableColumn id="2" xr3:uid="{92E131FA-59D7-44BA-9ACD-61FF2DC462F5}" name="Effective Tool "/>
@@ -790,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2FBEB1-FEB0-46C1-AFA8-96AB98150AA5}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,9 +825,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
-        <v>66</v>
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -989,7 +1007,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1005,92 +1023,92 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
         <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="D16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1100,90 +1118,196 @@
         <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" t="s">
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C27" t="s">
         <v>45</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D27" t="s">
         <v>40</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E27" t="s">
         <v>46</v>
       </c>
-      <c r="F20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>49</v>
+      <c r="F27" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
